--- a/config_9.21/rank_server.xlsx
+++ b/config_9.21/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -3419,9 +3419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5424,10 +5424,10 @@
         <v>115</v>
       </c>
       <c r="F56" s="40">
-        <v>1627948800</v>
+        <v>1631577600</v>
       </c>
       <c r="G56" s="40">
-        <v>1628524799</v>
+        <v>1632153599</v>
       </c>
       <c r="H56" s="40" t="s">
         <v>14</v>
@@ -11563,7 +11563,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12235,7 +12235,7 @@
         <v>229</v>
       </c>
       <c r="C58" s="51">
-        <v>1628524799</v>
+        <v>1632153599</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -12293,7 +12293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H337" sqref="H337"/>
     </sheetView>

--- a/config_9.21/rank_server.xlsx
+++ b/config_9.21/rank_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2449" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2450" uniqueCount="691">
   <si>
     <t>id|</t>
   </si>
@@ -2817,6 +2817,10 @@
   </si>
   <si>
     <t>ymshf_017_hldr_rank</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess_apple_spend</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3419,7 +3423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
@@ -5591,11 +5595,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F129" sqref="F129:G130"/>
+      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7722,6 +7726,20 @@
       </c>
       <c r="G138" s="4" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4">
+        <v>48</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="D139" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
